--- a/Oshogbo_Core1.xlsx
+++ b/Oshogbo_Core1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10921"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oabubakre/Downloads/CBN CORE BRANCH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yemi/Downloads/OneDrive_2_27-09-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2207125B-D9DB-5A41-ADE5-DECB670CBDC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EBCFA4-8DC3-5649-8990-14C8A82A4ADB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="800" yWindow="940" windowWidth="28800" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,9 +62,6 @@
     <t>DOWNLINK</t>
   </si>
   <si>
-    <t xml:space="preserve">172.18.210.5 </t>
-  </si>
-  <si>
     <t>255.255.255.252</t>
   </si>
   <si>
@@ -216,13 +213,16 @@
   </si>
   <si>
     <t>Te1/0/6</t>
+  </si>
+  <si>
+    <t>172.18.210.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,20 +542,20 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -586,18 +586,18 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>11</v>
       </c>
       <c r="B3">
         <v>762</v>
@@ -606,18 +606,18 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>14</v>
       </c>
       <c r="B4">
         <v>763</v>
@@ -626,18 +626,18 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>17</v>
       </c>
       <c r="B5">
         <v>764</v>
@@ -646,18 +646,18 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>20</v>
       </c>
       <c r="B6">
         <v>765</v>
@@ -666,18 +666,18 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>23</v>
       </c>
       <c r="B7">
         <v>766</v>
@@ -686,18 +686,18 @@
         <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>26</v>
       </c>
       <c r="B8">
         <v>767</v>
@@ -706,18 +706,18 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>29</v>
       </c>
       <c r="B9">
         <v>768</v>
@@ -726,18 +726,18 @@
         <v>7</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>32</v>
       </c>
       <c r="B10">
         <v>769</v>
@@ -746,18 +746,18 @@
         <v>7</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>35</v>
       </c>
       <c r="B11">
         <v>770</v>
@@ -766,18 +766,18 @@
         <v>7</v>
       </c>
       <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
         <v>36</v>
       </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>38</v>
       </c>
       <c r="B12">
         <v>771</v>
@@ -786,18 +786,18 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>41</v>
       </c>
       <c r="B13">
         <v>772</v>
@@ -806,18 +806,18 @@
         <v>7</v>
       </c>
       <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>42</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>44</v>
       </c>
       <c r="B14">
         <v>773</v>
@@ -826,33 +826,33 @@
         <v>7</v>
       </c>
       <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
         <v>45</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>47</v>
       </c>
       <c r="B15">
         <v>760</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
         <v>49</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -873,77 +873,77 @@
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
         <v>58</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>59</v>
-      </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -964,15 +964,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100001A11416981444B8476EB0F578DF6FC" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb80f213915c9886d79f20d23f433736">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4df82e8d-12db-4600-a172-feedf3f776c5" xmlns:ns3="22ae2ca7-ab15-449d-9caf-c7f573026462" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="30291b80a23f631211fa3a18888a87bb" ns2:_="" ns3:_="">
     <xsd:import namespace="4df82e8d-12db-4600-a172-feedf3f776c5"/>
@@ -1161,14 +1152,49 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E6698E-A141-43D0-91EA-2ECB286FA953}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A7E6698E-A141-43D0-91EA-2ECB286FA953}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="22ae2ca7-ab15-449d-9caf-c7f573026462"/>
+    <ds:schemaRef ds:uri="4df82e8d-12db-4600-a172-feedf3f776c5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534477A1-58A6-4F62-9014-8E3BDC047385}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E34AA6-2576-4789-BB6E-847AF308717D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4df82e8d-12db-4600-a172-feedf3f776c5"/>
+    <ds:schemaRef ds:uri="22ae2ca7-ab15-449d-9caf-c7f573026462"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46E34AA6-2576-4789-BB6E-847AF308717D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{534477A1-58A6-4F62-9014-8E3BDC047385}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>